--- a/excel_routes/route_CAI_YNB_threats.xlsx
+++ b/excel_routes/route_CAI_YNB_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>6752</v>
+        <v>7182</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9223</v>
+        <v>8090</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-2471</v>
+        <v>-908</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7159</v>
+        <v>7523</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9223</v>
+        <v>8090</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-2064</v>
+        <v>-567</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8701</v>
+        <v>7661</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12179</v>
+        <v>8090</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-3478</v>
+        <v>-429</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -667,9 +667,9 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>20-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12039</v>
+        <v>8140</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12179</v>
+        <v>9766</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-140</v>
+        <v>-1626</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8204</v>
+        <v>8657</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>9223</v>
+        <v>9766</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1019</v>
+        <v>-1109</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8204</v>
+        <v>8140</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>9223</v>
+        <v>9766</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1019</v>
+        <v>-1626</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8204</v>
+        <v>7661</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>9223</v>
+        <v>9173</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1019</v>
+        <v>-1512</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,12 +861,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-941</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>8204</v>
+        <v>6704</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>20715</v>
+        <v>9173</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-12511</v>
+        <v>-2469</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -892,9 +892,9 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>8204</v>
+        <v>7182</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>20715</v>
+        <v>8632</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-12511</v>
+        <v>-1450</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -937,9 +937,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8790</v>
+        <v>6048</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>9223</v>
+        <v>7132</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-433</v>
+        <v>-1084</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -996,27 +996,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8790</v>
+        <v>17755</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20715</v>
+        <v>20628</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-11925</v>
+        <v>-2873</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,9 +1027,9 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12039</v>
+        <v>17755</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>20715</v>
+        <v>20628</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-8676</v>
+        <v>-2873</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1072,12 +1072,57 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>24-FEB-26</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>SM-941</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>8140</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>20628</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-12488</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_YNB_threats.xlsx
+++ b/excel_routes/route_CAI_YNB_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8679</v>
+        <v>8742</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>9170</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-491</v>
+        <v>-428</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>8742</v>
+        <v>8137</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9170</v>
+        <v>8628</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-428</v>
+        <v>-491</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>8137</v>
+        <v>7155</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>8628</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-491</v>
+        <v>-1473</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>7155</v>
+        <v>7658</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>9170</v>
+        <v>8628</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-2015</v>
+        <v>-970</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7658</v>
+        <v>6651</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>9170</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1512</v>
+        <v>-2519</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -802,9 +802,9 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>6651</v>
+        <v>6701</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>9170</v>
+        <v>7545</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-2519</v>
+        <v>-844</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6701</v>
+        <v>7658</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7545</v>
+        <v>8628</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-844</v>
+        <v>-970</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7180</v>
+        <v>7658</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>8628</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1448</v>
+        <v>-970</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -961,7 +961,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -996,27 +996,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7658</v>
+        <v>17723</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8628</v>
+        <v>20621</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-970</v>
+        <v>-2898</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,9 +1027,9 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>17723</v>
+        <v>8137</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>20621</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-2898</v>
+        <v>-12484</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1117,9 +1117,9 @@
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8137</v>
+        <v>8742</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>20621</v>
+        <v>9170</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-12484</v>
+        <v>-428</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-403</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-403</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1271,22 +1271,22 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-943</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>8742</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>9170</v>
+        <v>20621</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-428</v>
+        <v>-11879</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-403</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-403</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1401,27 +1401,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-113</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
         <v>8742</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>20621</v>
+        <v>9762</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-11879</v>
+        <v>-1020</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1432,9 +1432,9 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1463,10 +1463,10 @@
         <v>8742</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>9762</v>
+        <v>20621</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1020</v>
+        <v>-11879</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1477,9 +1477,9 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8742</v>
+        <v>11979</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>20621</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-11879</v>
+        <v>-8642</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1528,51 +1528,6 @@
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>26-MAR-26</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>SM-987</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>11979</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>20621</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-8642</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_YNB_threats.xlsx
+++ b/excel_routes/route_CAI_YNB_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8629</v>
+        <v>8780</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9722</v>
+        <v>9817</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1093</v>
+        <v>-1037</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>7637</v>
+        <v>8729</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9132</v>
+        <v>10425</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1495</v>
+        <v>-1696</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7109</v>
+        <v>7591</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9132</v>
+        <v>8135</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-2023</v>
+        <v>-544</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>7160</v>
+        <v>7692</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>9132</v>
+        <v>8135</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1972</v>
+        <v>-443</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6619</v>
+        <v>6174</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>9722</v>
+        <v>7161</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-3103</v>
+        <v>-987</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -757,9 +757,9 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6682</v>
+        <v>7692</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>8051</v>
+        <v>8679</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1369</v>
+        <v>-987</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7637</v>
+        <v>7211</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8592</v>
+        <v>11209</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-955</v>
+        <v>-3998</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7160</v>
+        <v>7692</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>11104</v>
+        <v>11209</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-3944</v>
+        <v>-3517</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7160</v>
+        <v>7692</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>11104</v>
+        <v>11209</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-3944</v>
+        <v>-3517</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7637</v>
+        <v>6882</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>11104</v>
+        <v>7591</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-3467</v>
+        <v>-709</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,9 +982,9 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,27 +996,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>15023</v>
+        <v>7186</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20525</v>
+        <v>7591</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-5502</v>
+        <v>-405</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,9 +1027,9 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1041,27 +1041,27 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>10-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>15023</v>
+        <v>7591</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>20525</v>
+        <v>9817</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-5502</v>
+        <v>-2226</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1072,9 +1072,9 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6431</v>
+        <v>7692</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>7097</v>
+        <v>9817</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-666</v>
+        <v>-2125</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-941</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-188</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>8114</v>
+        <v>6477</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>20525</v>
+        <v>7161</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-12411</v>
+        <v>-684</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,27 +1176,27 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>17673</v>
+        <v>6477</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>20525</v>
+        <v>7161</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-2852</v>
+        <v>-684</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,27 +1221,27 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>17673</v>
+        <v>6477</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>20525</v>
+        <v>7161</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-2852</v>
+        <v>-684</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1252,9 +1252,9 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,27 +1266,27 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>8114</v>
+        <v>6477</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>20525</v>
+        <v>7161</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-12411</v>
+        <v>-684</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,27 +1311,27 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-941</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8692</v>
+        <v>8097</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>9132</v>
+        <v>20761</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-440</v>
+        <v>-12664</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1342,9 +1342,9 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,27 +1356,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-941</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-403</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8692</v>
+        <v>8097</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>9132</v>
+        <v>20761</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-440</v>
+        <v>-12664</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,27 +1401,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-941</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8692</v>
+        <v>8173</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>9132</v>
+        <v>20761</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-440</v>
+        <v>-12588</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1432,9 +1432,9 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,27 +1446,27 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>8692</v>
+        <v>7591</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>20525</v>
+        <v>20761</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-11833</v>
+        <v>-13170</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1491,27 +1491,27 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-403</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>8692</v>
+        <v>7591</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>20525</v>
+        <v>20761</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-11833</v>
+        <v>-13170</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1536,27 +1536,27 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8692</v>
+        <v>8097</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>20525</v>
+        <v>20761</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-11833</v>
+        <v>-12664</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1581,27 +1581,27 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>8692</v>
+        <v>17852</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>9722</v>
+        <v>20761</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1030</v>
+        <v>-2909</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1612,9 +1612,9 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,27 +1626,27 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>8692</v>
+        <v>17852</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>20525</v>
+        <v>20761</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-11833</v>
+        <v>-2909</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1657,9 +1657,9 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>11920</v>
+        <v>7591</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>20525</v>
+        <v>9817</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-8605</v>
+        <v>-2226</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1702,9 +1702,9 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,43 +1716,583 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-182</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>7591</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>9817</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-2226</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>22-FEB-26</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-180</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>8097</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>9817</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-1720</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>8173</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>-12588</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-303</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>9223</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>-443</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-403</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>9223</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>-443</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>9223</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>-443</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>SM-943</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-303</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>-11981</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SM-943</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-403</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>-11981</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>SM-943</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>-11981</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-113</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>9817</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>-1037</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-113</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>8780</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>-11981</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
           <t>26-MAR-26</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>SM-987</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>12032</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>-8729</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>26-MAR-26</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Nile Air NP-113</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>15023</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>20525</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>-5502</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="D40" s="2" t="n">
+        <v>15182</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>20761</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>-5579</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="K40" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_YNB_threats.xlsx
+++ b/excel_routes/route_CAI_YNB_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>8780</v>
+        <v>7149</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9817</v>
+        <v>7538</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-1037</v>
+        <v>-389</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>03-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8729</v>
+        <v>7551</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10425</v>
+        <v>8078</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-1696</v>
+        <v>-527</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>7591</v>
+        <v>6648</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>8135</v>
+        <v>7112</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-544</v>
+        <v>-464</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>03-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>7692</v>
+        <v>6673</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8135</v>
+        <v>7112</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-443</v>
+        <v>-439</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>04-FEB-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6174</v>
+        <v>7174</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>7161</v>
+        <v>9156</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-987</v>
+        <v>-1982</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-113</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>7692</v>
+        <v>8730</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>8679</v>
+        <v>9156</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-987</v>
+        <v>-426</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,12 +816,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7211</v>
+        <v>6924</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>11209</v>
+        <v>7112</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-3998</v>
+        <v>-188</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,9 +847,9 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7692</v>
+        <v>6648</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>11209</v>
+        <v>8617</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-3517</v>
+        <v>-1969</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -892,9 +892,9 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>7692</v>
+        <v>7149</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>11209</v>
+        <v>8617</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-3517</v>
+        <v>-1468</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -937,9 +937,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>6882</v>
+        <v>7174</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7591</v>
+        <v>8617</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-709</v>
+        <v>-1443</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>7186</v>
+        <v>6447</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>7591</v>
+        <v>9758</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-405</v>
+        <v>-3311</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,9 +1027,9 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7591</v>
+        <v>7149</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>9817</v>
+        <v>9758</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-2226</v>
+        <v>-2609</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1072,9 +1072,9 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>7692</v>
+        <v>6673</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>9817</v>
+        <v>8078</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-2125</v>
+        <v>-1405</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6477</v>
+        <v>6447</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>7161</v>
+        <v>7112</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-684</v>
+        <v>-665</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>6477</v>
+        <v>6447</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>7161</v>
+        <v>7112</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-684</v>
+        <v>-665</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6477</v>
+        <v>6447</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>7161</v>
+        <v>7112</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-684</v>
+        <v>-665</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6477</v>
+        <v>6447</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>7161</v>
+        <v>7112</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-684</v>
+        <v>-665</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1311,27 +1311,27 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-941</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-186</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>8097</v>
+        <v>6924</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>20761</v>
+        <v>7112</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-12664</v>
+        <v>-188</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1342,9 +1342,9 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,27 +1356,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-941</t>
+          <t>SM-933</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nesma Airlines NE-188</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8097</v>
+        <v>6447</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-12664</v>
+        <v>-14212</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1401,27 +1401,27 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>18-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SM-941</t>
+          <t>SM-933</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>8173</v>
+        <v>6447</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-12588</v>
+        <v>-14212</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1446,27 +1446,27 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-933</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>7591</v>
+        <v>6447</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-13170</v>
+        <v>-14212</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1491,12 +1491,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-933</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>7591</v>
+        <v>6447</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-13170</v>
+        <v>-14212</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1536,27 +1536,27 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-933</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>8097</v>
+        <v>6924</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-12664</v>
+        <v>-13735</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1581,27 +1581,27 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>17-FEB-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-933</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>17852</v>
+        <v>7551</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-2909</v>
+        <v>-13108</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1612,9 +1612,9 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,27 +1626,27 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-941</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>17852</v>
+        <v>7174</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>20761</v>
+        <v>20659</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-2909</v>
+        <v>-13485</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1657,9 +1657,9 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,27 +1671,27 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-941</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>7591</v>
+        <v>8052</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>9817</v>
+        <v>20659</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-2226</v>
+        <v>-12607</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1702,9 +1702,9 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>18-FEB-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-941</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>7591</v>
+        <v>8052</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>9817</v>
+        <v>20659</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-2226</v>
+        <v>-12607</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1747,9 +1747,9 @@
       <c r="I28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,27 +1761,27 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-113</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>8097</v>
+        <v>6924</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>9817</v>
+        <v>8078</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1720</v>
+        <v>-1154</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1806,27 +1806,27 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>8173</v>
+        <v>6924</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>20761</v>
+        <v>8078</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-12588</v>
+        <v>-1154</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1837,9 +1837,9 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>8780</v>
+        <v>6924</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>9223</v>
+        <v>8078</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-443</v>
+        <v>-1154</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-403</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>8780</v>
+        <v>7551</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>9223</v>
+        <v>8078</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-443</v>
+        <v>-527</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>30</v>
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>8780</v>
+        <v>8052</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>9223</v>
+        <v>8078</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-443</v>
+        <v>-26</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1986,12 +1986,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>8780</v>
+        <v>6924</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>20761</v>
+        <v>9758</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-11981</v>
+        <v>-2834</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>30</v>
@@ -2017,9 +2017,9 @@
       <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J34" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,27 +2031,27 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-403</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>8780</v>
+        <v>6924</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>20761</v>
+        <v>9758</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-11981</v>
+        <v>-2834</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>30</v>
@@ -2062,9 +2062,9 @@
       <c r="I35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J35" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,27 +2076,27 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-943</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>8780</v>
+        <v>7551</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>20761</v>
+        <v>9758</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-11981</v>
+        <v>-2207</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2107,9 +2107,9 @@
       <c r="I36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,27 +2121,27 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-987</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>8780</v>
+        <v>8052</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>9817</v>
+        <v>9758</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-1037</v>
+        <v>-1706</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2166,27 +2166,27 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>8780</v>
+        <v>6848</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>20761</v>
+        <v>7112</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-11981</v>
+        <v>-264</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>30</v>
@@ -2197,9 +2197,9 @@
       <c r="I38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2211,12 +2211,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SM-987</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>12032</v>
+        <v>6924</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>20761</v>
+        <v>7112</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-8729</v>
+        <v>-188</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>30</v>
@@ -2242,9 +2242,9 @@
       <c r="I39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,43 +2256,943 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
+          <t>28-FEB-26</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>6673</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>8078</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>-1405</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>03-MAR-26</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>6924</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>7538</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>-614</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>05-MAR-26</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>7174</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>8078</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>-904</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>10-MAR-26</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>6924</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>7538</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>-614</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>12-MAR-26</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>7174</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>8078</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>-904</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>17-MAR-26</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>6924</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>8078</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>-1154</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>17-MAR-26</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-303</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>7651</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>8078</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>-427</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>18-MAR-26</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-303</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>7174</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>7538</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>-364</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>6924</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>7538</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>-614</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>6924</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>-13735</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-303</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>7651</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>9156</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>-1505</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-403</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>7651</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>9156</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>-1505</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>9156</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>-426</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>SM-943</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-303</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>7651</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>-13008</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>SM-943</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-403</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>7651</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>-13008</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>24-MAR-26</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>SM-943</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>-11929</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>SM-441</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-113</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>9758</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>-1028</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>25-MAR-26</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-113</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>8730</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>-11929</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
           <t>26-MAR-26</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>SM-987</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Nile Air NP-113</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>15182</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>20761</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-5579</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="D58" s="2" t="n">
+        <v>11979</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>-8680</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K40" s="2" t="inlineStr">
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>26-MAR-26</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>SM-987</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-103</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>11979</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>-8680</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>EGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>28-MAR-26</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>SM-931</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-113</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>15102</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>20659</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>-5557</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>

--- a/excel_routes/route_CAI_YNB_threats.xlsx
+++ b/excel_routes/route_CAI_YNB_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A95BA-206C-491E-B691-5F680A047AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F0E183-7195-496B-B1F1-316C8939933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -60,21 +60,27 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>01-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-441</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-180</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>03-FEB-26</t>
+  </si>
+  <si>
     <t>04-FEB-26</t>
   </si>
   <si>
-    <t>SM-441</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-180</t>
-  </si>
-  <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
     <t>05-FEB-26</t>
   </si>
   <si>
@@ -84,43 +90,52 @@
     <t>06-FEB-26</t>
   </si>
   <si>
-    <t>08-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-983</t>
+    <t>07-FEB-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-113</t>
+  </si>
+  <si>
+    <t>09-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-987</t>
+  </si>
+  <si>
+    <t>Nile Air NP-303</t>
+  </si>
+  <si>
+    <t>12-FEB-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-184</t>
+  </si>
+  <si>
+    <t>13-FEB-26</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-182</t>
+  </si>
+  <si>
+    <t>16-FEB-26</t>
+  </si>
+  <si>
+    <t>17-FEB-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-188</t>
   </si>
   <si>
     <t>Nesma Airlines NE-186</t>
   </si>
   <si>
-    <t>Nesma Airlines NE-184</t>
-  </si>
-  <si>
-    <t>09-FEB-26</t>
-  </si>
-  <si>
-    <t>SM-987</t>
-  </si>
-  <si>
-    <t>Nile Air NP-303</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>13-FEB-26</t>
-  </si>
-  <si>
-    <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-182</t>
-  </si>
-  <si>
-    <t>16-FEB-26</t>
-  </si>
-  <si>
-    <t>17-FEB-26</t>
+    <t>SM-933</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
   </si>
   <si>
     <t>18-FEB-26</t>
@@ -129,34 +144,58 @@
     <t>SM-941</t>
   </si>
   <si>
-    <t>19-FEB-26</t>
+    <t>20-FEB-26</t>
+  </si>
+  <si>
+    <t>22-FEB-26</t>
+  </si>
+  <si>
+    <t>26-FEB-26</t>
+  </si>
+  <si>
+    <t>28-FEB-26</t>
+  </si>
+  <si>
+    <t>03-MAR-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>10-MAR-26</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>17-MAR-26</t>
+  </si>
+  <si>
+    <t>18-MAR-26</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>24-MAR-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-403</t>
+  </si>
+  <si>
+    <t>SM-943</t>
+  </si>
+  <si>
+    <t>25-MAR-26</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
   </si>
   <si>
     <t>SM-931</t>
-  </si>
-  <si>
-    <t>HIGH THREAT ALERT - NEED ACTION</t>
-  </si>
-  <si>
-    <t>20-FEB-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-113</t>
-  </si>
-  <si>
-    <t>22-FEB-26</t>
-  </si>
-  <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
-    <t>27-FEB-26</t>
-  </si>
-  <si>
-    <t>28-FEB-26</t>
-  </si>
-  <si>
-    <t>03-MAR-26</t>
   </si>
 </sst>
 </file>
@@ -562,7 +601,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,13 +665,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>6135</v>
+        <v>7149</v>
       </c>
       <c r="E2" s="2">
-        <v>6399</v>
+        <v>7538</v>
       </c>
       <c r="F2" s="2">
-        <v>-264</v>
+        <v>-389</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -658,16 +697,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>6210</v>
+        <v>7551</v>
       </c>
       <c r="E3" s="2">
-        <v>6399</v>
+        <v>8078</v>
       </c>
       <c r="F3" s="2">
-        <v>-189</v>
+        <v>-527</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -687,22 +726,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>7166</v>
+        <v>6648</v>
       </c>
       <c r="E4" s="2">
-        <v>9165</v>
+        <v>7112</v>
       </c>
       <c r="F4" s="2">
-        <v>-1999</v>
+        <v>-464</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -722,22 +761,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="2">
-        <v>8674</v>
+        <v>6673</v>
       </c>
       <c r="E5" s="2">
-        <v>9756</v>
+        <v>7112</v>
       </c>
       <c r="F5" s="2">
-        <v>-1082</v>
+        <v>-439</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -757,22 +796,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="2">
-        <v>8674</v>
+        <v>7174</v>
       </c>
       <c r="E6" s="2">
-        <v>9756</v>
+        <v>9156</v>
       </c>
       <c r="F6" s="2">
-        <v>-1082</v>
+        <v>-1982</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -792,22 +831,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>6688</v>
+        <v>8730</v>
       </c>
       <c r="E7" s="2">
-        <v>7543</v>
+        <v>9156</v>
       </c>
       <c r="F7" s="2">
-        <v>-855</v>
+        <v>-426</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -827,22 +866,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>6638</v>
+        <v>6924</v>
       </c>
       <c r="E8" s="2">
-        <v>8624</v>
+        <v>7112</v>
       </c>
       <c r="F8" s="2">
-        <v>-1986</v>
+        <v>-188</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -868,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>7141</v>
+        <v>6648</v>
       </c>
       <c r="E9" s="2">
-        <v>8624</v>
+        <v>8617</v>
       </c>
       <c r="F9" s="2">
-        <v>-1483</v>
+        <v>-1969</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -897,22 +936,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>6437</v>
+        <v>7149</v>
       </c>
       <c r="E10" s="2">
-        <v>9756</v>
+        <v>8617</v>
       </c>
       <c r="F10" s="2">
-        <v>-3319</v>
+        <v>-1468</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -923,8 +962,8 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>28</v>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -932,22 +971,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
-        <v>7141</v>
+        <v>7174</v>
       </c>
       <c r="E11" s="2">
-        <v>9756</v>
+        <v>8617</v>
       </c>
       <c r="F11" s="2">
-        <v>-2615</v>
+        <v>-1443</v>
       </c>
       <c r="G11" s="2">
         <v>30</v>
@@ -958,8 +997,8 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>28</v>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -967,22 +1006,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>6939</v>
+        <v>6447</v>
       </c>
       <c r="E12" s="2">
-        <v>8624</v>
+        <v>9758</v>
       </c>
       <c r="F12" s="2">
-        <v>-1685</v>
+        <v>-3311</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -993,8 +1032,8 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
+      <c r="J12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -1002,22 +1041,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>6939</v>
+        <v>7149</v>
       </c>
       <c r="E13" s="2">
-        <v>7115</v>
+        <v>9758</v>
       </c>
       <c r="F13" s="2">
-        <v>-176</v>
+        <v>-2609</v>
       </c>
       <c r="G13" s="2">
         <v>30</v>
@@ -1028,8 +1067,8 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
+      <c r="J13" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -1037,22 +1076,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>7166</v>
+        <v>6673</v>
       </c>
       <c r="E14" s="2">
-        <v>10359</v>
+        <v>8078</v>
       </c>
       <c r="F14" s="2">
-        <v>-3193</v>
+        <v>-1405</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
@@ -1063,8 +1102,8 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>28</v>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1075,19 +1114,19 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" s="2">
-        <v>8046</v>
+        <v>6447</v>
       </c>
       <c r="E15" s="2">
-        <v>10359</v>
+        <v>7112</v>
       </c>
       <c r="F15" s="2">
-        <v>-2313</v>
+        <v>-665</v>
       </c>
       <c r="G15" s="2">
         <v>30</v>
@@ -1110,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
-        <v>8046</v>
+        <v>6447</v>
       </c>
       <c r="E16" s="2">
-        <v>10359</v>
+        <v>7112</v>
       </c>
       <c r="F16" s="2">
-        <v>-2313</v>
+        <v>-665</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
@@ -1142,22 +1181,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>7644</v>
+        <v>6447</v>
       </c>
       <c r="E17" s="2">
-        <v>20631</v>
+        <v>7112</v>
       </c>
       <c r="F17" s="2">
-        <v>-12987</v>
+        <v>-665</v>
       </c>
       <c r="G17" s="2">
         <v>30</v>
@@ -1168,8 +1207,8 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>36</v>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1177,22 +1216,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
-        <v>8046</v>
+        <v>6447</v>
       </c>
       <c r="E18" s="2">
-        <v>20631</v>
+        <v>7112</v>
       </c>
       <c r="F18" s="2">
-        <v>-12585</v>
+        <v>-665</v>
       </c>
       <c r="G18" s="2">
         <v>30</v>
@@ -1203,8 +1242,8 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>36</v>
+      <c r="J18" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
@@ -1212,22 +1251,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>6939</v>
+        <v>6924</v>
       </c>
       <c r="E19" s="2">
-        <v>8084</v>
+        <v>7112</v>
       </c>
       <c r="F19" s="2">
-        <v>-1145</v>
+        <v>-188</v>
       </c>
       <c r="G19" s="2">
         <v>30</v>
@@ -1247,22 +1286,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>6939</v>
+        <v>6447</v>
       </c>
       <c r="E20" s="2">
-        <v>8084</v>
+        <v>20659</v>
       </c>
       <c r="F20" s="2">
-        <v>-1145</v>
+        <v>-14212</v>
       </c>
       <c r="G20" s="2">
         <v>30</v>
@@ -1273,8 +1312,8 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>14</v>
+      <c r="J20" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -1282,22 +1321,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
-        <v>6939</v>
+        <v>6447</v>
       </c>
       <c r="E21" s="2">
-        <v>8084</v>
+        <v>20659</v>
       </c>
       <c r="F21" s="2">
-        <v>-1145</v>
+        <v>-14212</v>
       </c>
       <c r="G21" s="2">
         <v>30</v>
@@ -1308,8 +1347,8 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
+      <c r="J21" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>15</v>
@@ -1317,22 +1356,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2">
-        <v>7543</v>
+        <v>6447</v>
       </c>
       <c r="E22" s="2">
-        <v>8084</v>
+        <v>20659</v>
       </c>
       <c r="F22" s="2">
-        <v>-541</v>
+        <v>-14212</v>
       </c>
       <c r="G22" s="2">
         <v>30</v>
@@ -1343,8 +1382,8 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
+      <c r="J22" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>15</v>
@@ -1352,22 +1391,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
-        <v>8046</v>
+        <v>6447</v>
       </c>
       <c r="E23" s="2">
-        <v>8084</v>
+        <v>20659</v>
       </c>
       <c r="F23" s="2">
-        <v>-38</v>
+        <v>-14212</v>
       </c>
       <c r="G23" s="2">
         <v>30</v>
@@ -1378,8 +1417,8 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
+      <c r="J23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>15</v>
@@ -1387,22 +1426,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
-        <v>6939</v>
+        <v>6924</v>
       </c>
       <c r="E24" s="2">
-        <v>9756</v>
+        <v>20659</v>
       </c>
       <c r="F24" s="2">
-        <v>-2817</v>
+        <v>-13735</v>
       </c>
       <c r="G24" s="2">
         <v>30</v>
@@ -1413,8 +1452,8 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>28</v>
+      <c r="J24" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>15</v>
@@ -1422,22 +1461,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>6939</v>
+        <v>7551</v>
       </c>
       <c r="E25" s="2">
-        <v>9756</v>
+        <v>20659</v>
       </c>
       <c r="F25" s="2">
-        <v>-2817</v>
+        <v>-13108</v>
       </c>
       <c r="G25" s="2">
         <v>30</v>
@@ -1448,8 +1487,8 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>28</v>
+      <c r="J25" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>15</v>
@@ -1457,22 +1496,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>7543</v>
+        <v>7174</v>
       </c>
       <c r="E26" s="2">
-        <v>9756</v>
+        <v>20659</v>
       </c>
       <c r="F26" s="2">
-        <v>-2213</v>
+        <v>-13485</v>
       </c>
       <c r="G26" s="2">
         <v>30</v>
@@ -1483,8 +1522,8 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
+      <c r="J26" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>15</v>
@@ -1492,22 +1531,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
-        <v>8046</v>
+        <v>8052</v>
       </c>
       <c r="E27" s="2">
-        <v>9756</v>
+        <v>20659</v>
       </c>
       <c r="F27" s="2">
-        <v>-1710</v>
+        <v>-12607</v>
       </c>
       <c r="G27" s="2">
         <v>30</v>
@@ -1518,8 +1557,8 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>14</v>
+      <c r="J27" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>15</v>
@@ -1527,22 +1566,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
-        <v>6839</v>
+        <v>8052</v>
       </c>
       <c r="E28" s="2">
-        <v>7115</v>
+        <v>20659</v>
       </c>
       <c r="F28" s="2">
-        <v>-276</v>
+        <v>-12607</v>
       </c>
       <c r="G28" s="2">
         <v>30</v>
@@ -1553,8 +1592,8 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>14</v>
+      <c r="J28" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>15</v>
@@ -1562,22 +1601,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2">
-        <v>6939</v>
+        <v>6924</v>
       </c>
       <c r="E29" s="2">
-        <v>7115</v>
+        <v>8078</v>
       </c>
       <c r="F29" s="2">
-        <v>-176</v>
+        <v>-1154</v>
       </c>
       <c r="G29" s="2">
         <v>30</v>
@@ -1597,7 +1636,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -1606,13 +1645,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="2">
-        <v>7166</v>
+        <v>6924</v>
       </c>
       <c r="E30" s="2">
-        <v>7543</v>
+        <v>8078</v>
       </c>
       <c r="F30" s="2">
-        <v>-377</v>
+        <v>-1154</v>
       </c>
       <c r="G30" s="2">
         <v>30</v>
@@ -1632,22 +1671,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2">
-        <v>6688</v>
+        <v>6924</v>
       </c>
       <c r="E31" s="2">
-        <v>8084</v>
+        <v>8078</v>
       </c>
       <c r="F31" s="2">
-        <v>-1396</v>
+        <v>-1154</v>
       </c>
       <c r="G31" s="2">
         <v>30</v>
@@ -1667,36 +1706,1016 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7551</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-527</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8052</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-26</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9758</v>
+      </c>
+      <c r="F34" s="2">
+        <v>-2834</v>
+      </c>
+      <c r="G34" s="2">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E35" s="2">
+        <v>9758</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-2834</v>
+      </c>
+      <c r="G35" s="2">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7551</v>
+      </c>
+      <c r="E36" s="2">
+        <v>9758</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-2207</v>
+      </c>
+      <c r="G36" s="2">
+        <v>30</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8052</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9758</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-1706</v>
+      </c>
+      <c r="G37" s="2">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2">
+        <v>6848</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7112</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-264</v>
+      </c>
+      <c r="G38" s="2">
+        <v>30</v>
+      </c>
+      <c r="H38" s="2">
+        <v>30</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7112</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-188</v>
+      </c>
+      <c r="G39" s="2">
+        <v>30</v>
+      </c>
+      <c r="H39" s="2">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6673</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-1405</v>
+      </c>
+      <c r="G40" s="2">
+        <v>30</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2">
-        <v>6939</v>
-      </c>
-      <c r="E32" s="2">
-        <v>8084</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-1145</v>
-      </c>
-      <c r="G32" s="2">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7538</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-614</v>
+      </c>
+      <c r="G41" s="2">
+        <v>30</v>
+      </c>
+      <c r="H41" s="2">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7174</v>
+      </c>
+      <c r="E42" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-904</v>
+      </c>
+      <c r="G42" s="2">
+        <v>30</v>
+      </c>
+      <c r="H42" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E43" s="2">
+        <v>7538</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-614</v>
+      </c>
+      <c r="G43" s="2">
+        <v>30</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>7174</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F44" s="2">
+        <v>-904</v>
+      </c>
+      <c r="G44" s="2">
+        <v>30</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-1154</v>
+      </c>
+      <c r="G45" s="2">
+        <v>30</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8078</v>
+      </c>
+      <c r="F46" s="2">
+        <v>-427</v>
+      </c>
+      <c r="G46" s="2">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7174</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7538</v>
+      </c>
+      <c r="F47" s="2">
+        <v>-364</v>
+      </c>
+      <c r="G47" s="2">
+        <v>30</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7538</v>
+      </c>
+      <c r="F48" s="2">
+        <v>-614</v>
+      </c>
+      <c r="G48" s="2">
+        <v>30</v>
+      </c>
+      <c r="H48" s="2">
+        <v>30</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6924</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F49" s="2">
+        <v>-13735</v>
+      </c>
+      <c r="G49" s="2">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E50" s="2">
+        <v>9156</v>
+      </c>
+      <c r="F50" s="2">
+        <v>-1505</v>
+      </c>
+      <c r="G50" s="2">
+        <v>30</v>
+      </c>
+      <c r="H50" s="2">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E51" s="2">
+        <v>9156</v>
+      </c>
+      <c r="F51" s="2">
+        <v>-1505</v>
+      </c>
+      <c r="G51" s="2">
+        <v>30</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8730</v>
+      </c>
+      <c r="E52" s="2">
+        <v>9156</v>
+      </c>
+      <c r="F52" s="2">
+        <v>-426</v>
+      </c>
+      <c r="G52" s="2">
+        <v>30</v>
+      </c>
+      <c r="H52" s="2">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F53" s="2">
+        <v>-13008</v>
+      </c>
+      <c r="G53" s="2">
+        <v>30</v>
+      </c>
+      <c r="H53" s="2">
+        <v>30</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F54" s="2">
+        <v>-13008</v>
+      </c>
+      <c r="G54" s="2">
+        <v>30</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
+        <v>8730</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F55" s="2">
+        <v>-11929</v>
+      </c>
+      <c r="G55" s="2">
+        <v>30</v>
+      </c>
+      <c r="H55" s="2">
+        <v>30</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8730</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9758</v>
+      </c>
+      <c r="F56" s="2">
+        <v>-1028</v>
+      </c>
+      <c r="G56" s="2">
+        <v>30</v>
+      </c>
+      <c r="H56" s="2">
+        <v>30</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2">
+        <v>8730</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F57" s="2">
+        <v>-11929</v>
+      </c>
+      <c r="G57" s="2">
+        <v>30</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2">
+        <v>11979</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F58" s="2">
+        <v>-8680</v>
+      </c>
+      <c r="G58" s="2">
+        <v>30</v>
+      </c>
+      <c r="H58" s="2">
+        <v>30</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11979</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F59" s="2">
+        <v>-8680</v>
+      </c>
+      <c r="G59" s="2">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2">
+        <v>15102</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20659</v>
+      </c>
+      <c r="F60" s="2">
+        <v>-5557</v>
+      </c>
+      <c r="G60" s="2">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_CAI_YNB_threats.xlsx
+++ b/excel_routes/route_CAI_YNB_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -537,12 +528,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-955</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -551,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5102</v>
+        <v>4586</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12117</v>
+        <v>6423</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-7015</v>
+        <v>-1837</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -570,7 +561,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -582,27 +573,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-955</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6166</v>
+        <v>5270</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12117</v>
+        <v>6423</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-5951</v>
+        <v>-1153</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -615,7 +606,7 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -627,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -637,17 +628,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>6166</v>
+        <v>5270</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6723</v>
+        <v>6423</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-557</v>
+        <v>-1153</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -658,7 +649,7 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -672,27 +663,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-941</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nile Air NP-113</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>6166</v>
+        <v>4586</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>13257</v>
+        <v>6423</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-7091</v>
+        <v>-1837</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -705,7 +696,7 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -717,27 +708,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>24-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-983</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6166</v>
+        <v>4586</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12117</v>
+        <v>6423</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-5951</v>
+        <v>-1837</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -750,7 +741,7 @@
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -762,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>03-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -776,13 +767,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4583</v>
+        <v>5106</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1849</v>
+        <v>-1317</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -793,7 +784,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -807,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -817,17 +808,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5280</v>
+        <v>4586</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-1152</v>
+        <v>-1837</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -838,7 +829,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -852,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>10-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -862,17 +853,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5660</v>
+        <v>4586</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-772</v>
+        <v>-1837</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -883,7 +874,7 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -897,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -907,17 +898,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-113</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4583</v>
+        <v>5270</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-1849</v>
+        <v>-1153</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -928,7 +919,7 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -942,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -952,17 +943,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>5596</v>
+        <v>4586</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-836</v>
+        <v>-1837</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -973,7 +964,7 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -987,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -997,17 +988,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5596</v>
+        <v>5270</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-836</v>
+        <v>-1153</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1018,7 +1009,7 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1032,7 +1023,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>03-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1042,17 +1033,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6179</v>
+        <v>5270</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-253</v>
+        <v>-1153</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1063,7 +1054,7 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1077,7 +1068,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1087,17 +1078,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6179</v>
+        <v>5270</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-253</v>
+        <v>-1153</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1108,7 +1099,7 @@
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1122,7 +1113,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>10-MAR-26</t>
+          <t>16-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1132,17 +1123,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6179</v>
+        <v>5270</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-253</v>
+        <v>-1153</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1153,7 +1144,7 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1167,7 +1158,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1177,17 +1168,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>5280</v>
+        <v>4586</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-1152</v>
+        <v>-1837</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1198,7 +1189,7 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1212,7 +1203,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1222,17 +1213,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>5280</v>
+        <v>4586</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-1152</v>
+        <v>-1837</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1243,7 +1234,7 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1257,7 +1248,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>17-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1267,17 +1258,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>6179</v>
+        <v>5270</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-253</v>
+        <v>-1153</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1288,7 +1279,7 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1302,7 +1293,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1312,17 +1303,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-186</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>5280</v>
+        <v>4586</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-1152</v>
+        <v>-1837</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1333,7 +1324,7 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1347,7 +1338,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>18-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1357,17 +1348,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-1152</v>
+        <v>-1153</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1378,7 +1369,7 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1392,7 +1383,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>16-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1402,17 +1393,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>5280</v>
+        <v>4586</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-1152</v>
+        <v>-1837</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1423,7 +1414,7 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1437,7 +1428,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1451,13 +1442,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1152</v>
+        <v>-1153</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1468,7 +1459,7 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1482,7 +1473,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1492,17 +1483,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-186</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6179</v>
+        <v>5270</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-253</v>
+        <v>-1153</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1513,7 +1504,7 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1527,7 +1518,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>17-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1537,17 +1528,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>6179</v>
+        <v>5929</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-253</v>
+        <v>-494</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>30</v>
@@ -1558,7 +1549,7 @@
       <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1572,7 +1563,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1582,17 +1573,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-303</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>5102</v>
+        <v>5929</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1330</v>
+        <v>-494</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1603,7 +1594,7 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1617,12 +1608,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>18-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1631,13 +1622,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>5280</v>
+        <v>5929</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1152</v>
+        <v>-494</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1648,7 +1639,7 @@
       <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1662,27 +1653,27 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>5102</v>
+        <v>5929</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1330</v>
+        <v>-494</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1693,7 +1684,7 @@
       <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1707,27 +1698,27 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>23-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>SM-441</t>
+          <t>SM-985</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>5280</v>
+        <v>5929</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-1152</v>
+        <v>-494</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>30</v>
@@ -1738,7 +1729,7 @@
       <c r="I28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1752,7 +1743,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1762,17 +1753,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-186</t>
+          <t>Nile Air NP-103</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>5280</v>
+        <v>5106</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-1152</v>
+        <v>-1317</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1783,7 +1774,7 @@
       <c r="I29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1797,7 +1788,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1807,17 +1798,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nile Air NP-303</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>5938</v>
+        <v>5600</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-494</v>
+        <v>-823</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1828,7 +1819,7 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1842,7 +1833,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>24-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1852,14 +1843,14 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>-494</v>
@@ -1873,7 +1864,7 @@
       <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1887,12 +1878,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1901,10 +1892,10 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>-494</v>
@@ -1918,7 +1909,7 @@
       <c r="I32" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1932,12 +1923,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1946,10 +1937,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>-494</v>
@@ -1963,7 +1954,7 @@
       <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1977,24 +1968,24 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>23-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>SM-985</t>
+          <t>SM-441</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nesma Airlines NE-184</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>-494</v>
@@ -2008,7 +1999,7 @@
       <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2022,7 +2013,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2032,14 +2023,14 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>-494</v>
@@ -2053,7 +2044,7 @@
       <c r="I35" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2067,7 +2058,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>24-MAR-26</t>
+          <t>25-MAR-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2077,17 +2068,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-103</t>
+          <t>Nile Air NP-113</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>6179</v>
+        <v>6183</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-253</v>
+        <v>-240</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>30</v>
@@ -2098,7 +2089,7 @@
       <c r="I36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2112,7 +2103,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2122,17 +2113,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-186</t>
+          <t>Nile Air NP-113</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>5938</v>
+        <v>5106</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-494</v>
+        <v>-1317</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2143,7 +2134,7 @@
       <c r="I37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2157,7 +2148,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2171,10 +2162,10 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>-494</v>
@@ -2188,7 +2179,7 @@
       <c r="I38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2202,7 +2193,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2212,14 +2203,14 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-184</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>-494</v>
@@ -2233,7 +2224,7 @@
       <c r="I39" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2247,7 +2238,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>25-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2257,14 +2248,14 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-182</t>
+          <t>Nesma Airlines NE-180</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>-494</v>
@@ -2278,7 +2269,7 @@
       <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -2292,7 +2283,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>31-MAR-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2302,14 +2293,14 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-180</t>
+          <t>Nesma Airlines NE-182</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>5938</v>
+        <v>5929</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>6432</v>
+        <v>6423</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>-494</v>
@@ -2323,552 +2314,12 @@
       <c r="I41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>29-MAR-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-180</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>5938</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>6432</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-494</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>31-MAR-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-180</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>5938</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>6432</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>-494</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>31-MAR-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-182</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>5938</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>6432</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-494</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>01-APR-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-180</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>5660</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>7572</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-1912</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>01-APR-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-961</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-180</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>5660</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>20627</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-14967</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>02-APR-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Nesma Airlines NE-180</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>5660</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>7141</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-1481</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>03-APR-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>6787</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>7572</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-785</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>03-APR-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-961</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>6787</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>20627</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-13840</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>12-MAY-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>8889</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>10383</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-1494</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>16-MAY-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-447</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>8889</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>10383</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-1494</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>19-MAY-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-441</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>8889</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>10383</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>-1494</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>EGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>30-MAY-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-447</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-103</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>6787</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>8648</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>-1861</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>EGP</t>
         </is>
